--- a/resources/templates/template_addm.xlsx
+++ b/resources/templates/template_addm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEFFFC5-A330-448F-9E95-8D60E06BC597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C688A12-D9AB-4623-822A-351F8F53A32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4881AF0-868E-4670-BB33-784178777043}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4881AF0-868E-4670-BB33-784178777043}"/>
   </bookViews>
   <sheets>
     <sheet name="Addm" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,15 +80,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -142,18 +133,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{FAC81E5D-E437-4B12-AEBF-9BF0F298297B}"/>
     <cellStyle name="Testo descrittivo 2" xfId="2" xr:uid="{246510D3-60FB-4708-AC8F-BAD3BC29D3D5}"/>
   </cellStyles>
@@ -171,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2F78C5-08B5-4191-9ED5-061B4AF5AEEA}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,46 +473,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="H1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
